--- a/upload_files/data_emgineer_jr__data-engineer-medior-amazon.xlsx
+++ b/upload_files/data_emgineer_jr__data-engineer-medior-amazon.xlsx
@@ -175,16 +175,16 @@
     <t>scikit-learn : 1</t>
   </si>
   <si>
+    <t>engineer : 1</t>
+  </si>
+  <si>
+    <t>amazon : 2</t>
+  </si>
+  <si>
     <t>data engineer : 1</t>
   </si>
   <si>
     <t>analysis : 6</t>
-  </si>
-  <si>
-    <t>engineer : 1</t>
-  </si>
-  <si>
-    <t>amazon : 2</t>
   </si>
   <si>
     <t>10.41</t>
@@ -605,7 +605,7 @@
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s">
         <v>57</v>
@@ -625,7 +625,7 @@
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -633,7 +633,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:11">
